--- a/biology/Médecine/Syndrome_CHARGE/Syndrome_CHARGE.xlsx
+++ b/biology/Médecine/Syndrome_CHARGE/Syndrome_CHARGE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome CHARGE (acronyme anglais de coloboma, heart defect, atresia choanae, retarded growth and development, genital hypoplasia, ear anomalies/deafness soit en français colobome, malformations cardiaques, atrésie choanale, retard de croissance et/ou retard mental, hypoplasie génitale, anomalies des oreilles et/ou surdité). Son origine est génétique.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est décrit pour la première fois en 1979[2],[3], la cause génétique de ce syndrome a été mise en évidence en 2004[4],[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est décrit pour la première fois en 1979 la cause génétique de ce syndrome a été mise en évidence en 2004,
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence est de 1 / 10 000[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence est de 1 / 10 000.
 </t>
         </is>
       </c>
@@ -574,16 +590,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présentation en est très variable, d'un patient à l'autre, sans corrélation retrouvée avec le type de mutation du gène CHD7[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présentation en est très variable, d'un patient à l'autre, sans corrélation retrouvée avec le type de mutation du gène CHD7.
 Les anomalies oculaires concernent 80 % des sujets atteints. Cette anomalie consistant en une fente peut être unie ou bilatérale, atteindre l'iris ou la rétine ou les deux, la rétine étant plus fréquemment atteinte que l'iris. La vision est normale ou atteinte. Les anomalies de l'œil peuvent aller jusqu'à une anophtalmie ou une microphtalmie. L'examen clinique seul est insuffisant pour détecter des anomalies oculaires.
 Les anomalies cardiaques concernent 75-80 % des sujets atteints. La cardiopathie la plus fréquente est la tétralogie de Fallot dans un tiers des cas. Les autres anomalies sont la persistance du canal artériel, le ventricule droit à double sortie avec un canal atrio-ventriculaire, une communication inter-ventriculaire ou inter-auriculaire avec ou sans anomalie de la valve mitrale.
 L'atrésie des choanes est un rétrécissement ou une absence de communication entre la cavité nasale et le nasopharynx. 
 Le retard de croissance est manifeste. Le poids à la naissance est normal. Les difficultés alimentaires dans la survenue du retard de croissance ne doivent pas être sous-estimées et nécessitent une prise en charge précoce et  continue de ce problème. La majorité des enfants atteints ont une croissance inférieure au troisième centile. Le retard mental est variable allant d'une intelligence normale à un retard profond. Les troubles du comportement et  des manifestations autistiques sont reconnus comme faisant partie de ce syndrome.
 Facilement mises en évidence chez les garçons, les anomalies génitales sont plus difficiles à  reconnaître chez les filles. Des anomalies rénales  sont souvent associées. La puberté survient tardivement.
 Les anomalies des oreilles et des nerfs crâniens concernent 80-100 % des sujets atteints. Les oreilles sont souvent proéminentes avec un lobule hypoplasique secondaire à une absence de cartilage et une innervation déficiente des  muscles auriculaires par le septième nerf crânien. La surdité est habituelle. Des anomalies osseuses crâniennes sont mises en évidence par l'imagerie médicale qui peut dans certains cas être très utile pour établir le diagnostic.
-Plusieurs études ont mis en évidence que les troubles du comportement sont un des signes de cette pathologie[8]
+Plusieurs études ont mis en évidence que les troubles du comportement sont un des signes de cette pathologie
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cause est une mutation du gène CHD7[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cause est une mutation du gène CHD7.
 Au cours de l'embryogenèse, la rupture de la membrane bucco-nasale survenant entre le 35e et le 38e jour est une étape importante. L'absence de rupture aboutissant à l'atrésie des choanes. Les anomalies  cardiaques conotruncales étant en rapport avec un défaut de migration des cellules de la crête neurale survenant au cours de la septième semaine après la fécondation. La cochlée se développe vers le 36e jour et les yeux entre le 34e jour et le 44e jour qui est la période d'apparition des crêtes neurales. Les malformations de ce syndrome apparaissent tôt dans la période embryonnaire.
 </t>
         </is>
@@ -644,7 +664,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caryotype standard élimine les anomalies des chromosomes 9, 14 et 22. Le FISH élimine un syndrome de micro délétion du 22q11. 
 Diagnostic différentiel
@@ -677,10 +699,12 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des cas est le résultat d'une mutation de novo. Néanmoins un conseil génétique peut être envisagé afin de rechercher des anomalies mineures chez un des parents. Le diagnostic anténatal est possible si un des parents a une mutation connue. 
-En l'absence de parents atteints, le risque empirique de récidive est de 2 %. Deux études indépendantes ont mis en évidence que l'âge paternel est un facteur de risque[10],[11]
+En l'absence de parents atteints, le risque empirique de récidive est de 2 %. Deux études indépendantes ont mis en évidence que l'âge paternel est un facteur de risque,
 Aucun traitement n'est à ce jour possible. Quelques C.H.A.R.G.E. vivent normalement.
 </t>
         </is>
